--- a/EmailBlast/Excel/Tycadome/Continent/Europe/Germany.xlsx
+++ b/EmailBlast/Excel/Tycadome/Continent/Europe/Germany.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Countries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Continent\Europe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA698F-8BED-4937-B671-D358F67B6DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453DAB5-346B-47D6-9F1B-69BEE1C719EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6675" yWindow="5535" windowWidth="15375" windowHeight="7875" firstSheet="7" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="1" activeTab="9" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -501,9 +501,6 @@
     <t>Backspin</t>
   </si>
   <si>
-    <t>online@backspin.de</t>
-  </si>
-  <si>
     <t>https://www.backspin.de</t>
   </si>
   <si>
@@ -1019,6 +1016,9 @@
   </si>
   <si>
     <t xml:space="preserve">Albertus-Magnus-Platz 50923 Koln, </t>
+  </si>
+  <si>
+    <t>redaktion@backspin.de</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2151,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -2624,25 +2624,25 @@
         <v>151</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="J20">
         <v>494045000294</v>
@@ -2650,28 +2650,28 @@
     </row>
     <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J21">
         <v>498930774212</v>
@@ -2679,28 +2679,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="J22">
         <v>3044312027</v>
@@ -2708,28 +2708,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="J23">
         <v>490221990750</v>
@@ -2737,28 +2737,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="J24">
         <v>2212200</v>
@@ -2766,28 +2766,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="J25">
         <v>49893603880</v>
@@ -2795,28 +2795,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="J26">
         <v>89590001</v>
@@ -2824,28 +2824,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="J27">
         <v>711284200</v>
@@ -2853,28 +2853,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="J28">
         <v>35132054710</v>
@@ -2882,28 +2882,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="J29">
         <v>2214704831</v>
@@ -2911,28 +2911,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J30">
         <v>2317557474</v>
@@ -2940,51 +2940,51 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="J32">
         <v>493677694222</v>
@@ -2992,28 +2992,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="J33">
         <v>2214704831</v>
@@ -3021,28 +3021,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="J34">
         <v>4412188844</v>
@@ -3050,25 +3050,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="I35" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="J35">
         <v>49721387858</v>
@@ -3076,28 +3076,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="J36">
         <v>493413010006</v>
@@ -3105,28 +3105,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="J37">
         <v>2343210900</v>
@@ -3134,25 +3134,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="I38" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="J38">
         <v>76131028</v>
@@ -3160,28 +3160,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="J39">
         <v>3317097110</v>
@@ -3189,25 +3189,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="I40" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="J40">
         <v>3727581022</v>
@@ -3215,25 +3215,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="J41">
         <v>498005551122</v>
@@ -3241,22 +3241,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="J42">
         <v>6116099335</v>
@@ -3264,28 +3264,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="I43" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="J43">
         <v>371350235</v>
@@ -3293,25 +3293,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="I44" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="J44">
         <v>497071760337</v>
@@ -3319,28 +3319,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="J45">
         <v>6211811811</v>
@@ -3348,28 +3348,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="J46">
         <v>3317099222</v>
@@ -3377,28 +3377,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="I47" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="J47">
         <v>2717402066</v>
@@ -3406,28 +3406,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="G48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="J48">
         <v>2214704831</v>
@@ -3435,14 +3435,14 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
@@ -3450,10 +3450,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J49">
         <v>2317557474</v>
@@ -3461,28 +3461,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="I50" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="J50">
         <v>491773470268</v>
@@ -3490,28 +3490,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="J51">
         <v>3317099222</v>
@@ -3519,28 +3519,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="J52">
         <v>2214704831</v>
